--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Inhba-Eng.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Inhba-Eng.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.4632176098109</v>
+        <v>2.288150666666667</v>
       </c>
       <c r="H2">
-        <v>0.4632176098109</v>
+        <v>6.864452</v>
       </c>
       <c r="I2">
-        <v>0.1215051479044847</v>
+        <v>0.3964219041944151</v>
       </c>
       <c r="J2">
-        <v>0.1215051479044847</v>
+        <v>0.3964219041944151</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>51.2286908243197</v>
+        <v>150.1098686666667</v>
       </c>
       <c r="N2">
-        <v>51.2286908243197</v>
+        <v>450.329606</v>
       </c>
       <c r="O2">
-        <v>0.4820252624415567</v>
+        <v>0.7276622610660995</v>
       </c>
       <c r="P2">
-        <v>0.4820252624415567</v>
+        <v>0.7276622610660997</v>
       </c>
       <c r="Q2">
-        <v>23.73003171738295</v>
+        <v>343.4739960628791</v>
       </c>
       <c r="R2">
-        <v>23.73003171738295</v>
+        <v>3091.265964565912</v>
       </c>
       <c r="S2">
-        <v>0.05856855080665942</v>
+        <v>0.2884612591422367</v>
       </c>
       <c r="T2">
-        <v>0.05856855080665942</v>
+        <v>0.2884612591422368</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.4632176098109</v>
+        <v>2.288150666666667</v>
       </c>
       <c r="H3">
-        <v>0.4632176098109</v>
+        <v>6.864452</v>
       </c>
       <c r="I3">
-        <v>0.1215051479044847</v>
+        <v>0.3964219041944151</v>
       </c>
       <c r="J3">
-        <v>0.1215051479044847</v>
+        <v>0.3964219041944151</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>42.3052700170026</v>
+        <v>42.32476666666667</v>
       </c>
       <c r="N3">
-        <v>42.3052700170026</v>
+        <v>126.9743</v>
       </c>
       <c r="O3">
-        <v>0.398062268515475</v>
+        <v>0.2051706239258123</v>
       </c>
       <c r="P3">
-        <v>0.398062268515475</v>
+        <v>0.2051706239258124</v>
       </c>
       <c r="Q3">
-        <v>19.59654605968068</v>
+        <v>96.84544306484445</v>
       </c>
       <c r="R3">
-        <v>19.59654605968068</v>
+        <v>871.6089875836</v>
       </c>
       <c r="S3">
-        <v>0.0483666148111675</v>
+        <v>0.08133412942142675</v>
       </c>
       <c r="T3">
-        <v>0.0483666148111675</v>
+        <v>0.08133412942142676</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.4632176098109</v>
+        <v>2.288150666666667</v>
       </c>
       <c r="H4">
-        <v>0.4632176098109</v>
+        <v>6.864452</v>
       </c>
       <c r="I4">
-        <v>0.1215051479044847</v>
+        <v>0.3964219041944151</v>
       </c>
       <c r="J4">
-        <v>0.1215051479044847</v>
+        <v>0.3964219041944151</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.60379440513869</v>
+        <v>4.940565666666667</v>
       </c>
       <c r="N4">
-        <v>4.60379440513869</v>
+        <v>14.821697</v>
       </c>
       <c r="O4">
-        <v>0.04331840557811907</v>
+        <v>0.02394954586187395</v>
       </c>
       <c r="P4">
-        <v>0.04331840557811907</v>
+        <v>0.02394954586187395</v>
       </c>
       <c r="Q4">
-        <v>2.132558640409138</v>
+        <v>11.30475862389378</v>
       </c>
       <c r="R4">
-        <v>2.132558640409138</v>
+        <v>101.742827615044</v>
       </c>
       <c r="S4">
-        <v>0.005263409276755814</v>
+        <v>0.009494124575155544</v>
       </c>
       <c r="T4">
-        <v>0.005263409276755814</v>
+        <v>0.009494124575155546</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.4632176098109</v>
+        <v>2.288150666666667</v>
       </c>
       <c r="H5">
-        <v>0.4632176098109</v>
+        <v>6.864452</v>
       </c>
       <c r="I5">
-        <v>0.1215051479044847</v>
+        <v>0.3964219041944151</v>
       </c>
       <c r="J5">
-        <v>0.1215051479044847</v>
+        <v>0.3964219041944151</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.14026546315054</v>
+        <v>8.915377333333334</v>
       </c>
       <c r="N5">
-        <v>8.14026546315054</v>
+        <v>26.746132</v>
       </c>
       <c r="O5">
-        <v>0.07659406346484918</v>
+        <v>0.04321756914621411</v>
       </c>
       <c r="P5">
-        <v>0.07659406346484918</v>
+        <v>0.04321756914621412</v>
       </c>
       <c r="Q5">
-        <v>3.770714311066812</v>
+        <v>20.39972658885156</v>
       </c>
       <c r="R5">
-        <v>3.770714311066812</v>
+        <v>183.597539299664</v>
       </c>
       <c r="S5">
-        <v>0.009306573009901989</v>
+        <v>0.017132391055596</v>
       </c>
       <c r="T5">
-        <v>0.009306573009901989</v>
+        <v>0.017132391055596</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.52410154440256</v>
+        <v>2.588894</v>
       </c>
       <c r="H6">
-        <v>2.52410154440256</v>
+        <v>7.766681999999999</v>
       </c>
       <c r="I6">
-        <v>0.6620891023632983</v>
+        <v>0.4485256605643812</v>
       </c>
       <c r="J6">
-        <v>0.6620891023632983</v>
+        <v>0.4485256605643813</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>51.2286908243197</v>
+        <v>150.1098686666667</v>
       </c>
       <c r="N6">
-        <v>51.2286908243197</v>
+        <v>450.329606</v>
       </c>
       <c r="O6">
-        <v>0.4820252624415567</v>
+        <v>0.7276622610660995</v>
       </c>
       <c r="P6">
-        <v>0.4820252624415567</v>
+        <v>0.7276622610660997</v>
       </c>
       <c r="Q6">
-        <v>129.3064176273866</v>
+        <v>388.6185383319213</v>
       </c>
       <c r="R6">
-        <v>129.3064176273866</v>
+        <v>3497.566844987292</v>
       </c>
       <c r="S6">
-        <v>0.3191436733263636</v>
+        <v>0.3263751963124435</v>
       </c>
       <c r="T6">
-        <v>0.3191436733263636</v>
+        <v>0.3263751963124436</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.52410154440256</v>
+        <v>2.588894</v>
       </c>
       <c r="H7">
-        <v>2.52410154440256</v>
+        <v>7.766681999999999</v>
       </c>
       <c r="I7">
-        <v>0.6620891023632983</v>
+        <v>0.4485256605643812</v>
       </c>
       <c r="J7">
-        <v>0.6620891023632983</v>
+        <v>0.4485256605643813</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>42.3052700170026</v>
+        <v>42.32476666666667</v>
       </c>
       <c r="N7">
-        <v>42.3052700170026</v>
+        <v>126.9743</v>
       </c>
       <c r="O7">
-        <v>0.398062268515475</v>
+        <v>0.2051706239258123</v>
       </c>
       <c r="P7">
-        <v>0.398062268515475</v>
+        <v>0.2051706239258124</v>
       </c>
       <c r="Q7">
-        <v>106.7827973862836</v>
+        <v>109.5743344747333</v>
       </c>
       <c r="R7">
-        <v>106.7827973862836</v>
+        <v>986.1690102726</v>
       </c>
       <c r="S7">
-        <v>0.2635526900461091</v>
+        <v>0.09202428962473122</v>
       </c>
       <c r="T7">
-        <v>0.2635526900461091</v>
+        <v>0.09202428962473123</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.52410154440256</v>
+        <v>2.588894</v>
       </c>
       <c r="H8">
-        <v>2.52410154440256</v>
+        <v>7.766681999999999</v>
       </c>
       <c r="I8">
-        <v>0.6620891023632983</v>
+        <v>0.4485256605643812</v>
       </c>
       <c r="J8">
-        <v>0.6620891023632983</v>
+        <v>0.4485256605643813</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.60379440513869</v>
+        <v>4.940565666666667</v>
       </c>
       <c r="N8">
-        <v>4.60379440513869</v>
+        <v>14.821697</v>
       </c>
       <c r="O8">
-        <v>0.04331840557811907</v>
+        <v>0.02394954586187395</v>
       </c>
       <c r="P8">
-        <v>0.04331840557811907</v>
+        <v>0.02394954586187395</v>
       </c>
       <c r="Q8">
-        <v>11.62044456812243</v>
+        <v>12.79060081103933</v>
       </c>
       <c r="R8">
-        <v>11.62044456812243</v>
+        <v>115.115407299354</v>
       </c>
       <c r="S8">
-        <v>0.02868064426502615</v>
+        <v>0.01074198587791395</v>
       </c>
       <c r="T8">
-        <v>0.02868064426502615</v>
+        <v>0.01074198587791396</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.52410154440256</v>
+        <v>2.588894</v>
       </c>
       <c r="H9">
-        <v>2.52410154440256</v>
+        <v>7.766681999999999</v>
       </c>
       <c r="I9">
-        <v>0.6620891023632983</v>
+        <v>0.4485256605643812</v>
       </c>
       <c r="J9">
-        <v>0.6620891023632983</v>
+        <v>0.4485256605643813</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>8.14026546315054</v>
+        <v>8.915377333333334</v>
       </c>
       <c r="N9">
-        <v>8.14026546315054</v>
+        <v>26.746132</v>
       </c>
       <c r="O9">
-        <v>0.07659406346484918</v>
+        <v>0.04321756914621411</v>
       </c>
       <c r="P9">
-        <v>0.07659406346484918</v>
+        <v>0.04321756914621412</v>
       </c>
       <c r="Q9">
-        <v>20.5468566273851</v>
+        <v>23.08096688600267</v>
       </c>
       <c r="R9">
-        <v>20.5468566273851</v>
+        <v>207.728701974024</v>
       </c>
       <c r="S9">
-        <v>0.0507120947257995</v>
+        <v>0.01938418874929251</v>
       </c>
       <c r="T9">
-        <v>0.0507120947257995</v>
+        <v>0.01938418874929251</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.271061736233501</v>
+        <v>0.3123523333333333</v>
       </c>
       <c r="H10">
-        <v>0.271061736233501</v>
+        <v>0.9370569999999999</v>
       </c>
       <c r="I10">
-        <v>0.07110134773534026</v>
+        <v>0.05411501461132016</v>
       </c>
       <c r="J10">
-        <v>0.07110134773534026</v>
+        <v>0.05411501461132018</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>51.2286908243197</v>
+        <v>150.1098686666667</v>
       </c>
       <c r="N10">
-        <v>51.2286908243197</v>
+        <v>450.329606</v>
       </c>
       <c r="O10">
-        <v>0.4820252624415567</v>
+        <v>0.7276622610660995</v>
       </c>
       <c r="P10">
-        <v>0.4820252624415567</v>
+        <v>0.7276622610660997</v>
       </c>
       <c r="Q10">
-        <v>13.88613787980932</v>
+        <v>46.88716773439355</v>
       </c>
       <c r="R10">
-        <v>13.88613787980932</v>
+        <v>421.984509609542</v>
       </c>
       <c r="S10">
-        <v>0.03427264580207577</v>
+        <v>0.03937745388969825</v>
       </c>
       <c r="T10">
-        <v>0.03427264580207577</v>
+        <v>0.03937745388969826</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.271061736233501</v>
+        <v>0.3123523333333333</v>
       </c>
       <c r="H11">
-        <v>0.271061736233501</v>
+        <v>0.9370569999999999</v>
       </c>
       <c r="I11">
-        <v>0.07110134773534026</v>
+        <v>0.05411501461132016</v>
       </c>
       <c r="J11">
-        <v>0.07110134773534026</v>
+        <v>0.05411501461132018</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>42.3052700170026</v>
+        <v>42.32476666666667</v>
       </c>
       <c r="N11">
-        <v>42.3052700170026</v>
+        <v>126.9743</v>
       </c>
       <c r="O11">
-        <v>0.398062268515475</v>
+        <v>0.2051706239258123</v>
       </c>
       <c r="P11">
-        <v>0.398062268515475</v>
+        <v>0.2051706239258124</v>
       </c>
       <c r="Q11">
-        <v>11.4673399426358</v>
+        <v>13.22023962612222</v>
       </c>
       <c r="R11">
-        <v>11.4673399426358</v>
+        <v>118.9821566351</v>
       </c>
       <c r="S11">
-        <v>0.02830276377403718</v>
+        <v>0.01110281131155901</v>
       </c>
       <c r="T11">
-        <v>0.02830276377403718</v>
+        <v>0.01110281131155901</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.271061736233501</v>
+        <v>0.3123523333333333</v>
       </c>
       <c r="H12">
-        <v>0.271061736233501</v>
+        <v>0.9370569999999999</v>
       </c>
       <c r="I12">
-        <v>0.07110134773534026</v>
+        <v>0.05411501461132016</v>
       </c>
       <c r="J12">
-        <v>0.07110134773534026</v>
+        <v>0.05411501461132018</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.60379440513869</v>
+        <v>4.940565666666667</v>
       </c>
       <c r="N12">
-        <v>4.60379440513869</v>
+        <v>14.821697</v>
       </c>
       <c r="O12">
-        <v>0.04331840557811907</v>
+        <v>0.02394954586187395</v>
       </c>
       <c r="P12">
-        <v>0.04331840557811907</v>
+        <v>0.02394954586187395</v>
       </c>
       <c r="Q12">
-        <v>1.247912504718971</v>
+        <v>1.543197213969889</v>
       </c>
       <c r="R12">
-        <v>1.247912504718971</v>
+        <v>13.888774925729</v>
       </c>
       <c r="S12">
-        <v>0.003079997018350347</v>
+        <v>0.001296030024249791</v>
       </c>
       <c r="T12">
-        <v>0.003079997018350347</v>
+        <v>0.001296030024249792</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.271061736233501</v>
+        <v>0.3123523333333333</v>
       </c>
       <c r="H13">
-        <v>0.271061736233501</v>
+        <v>0.9370569999999999</v>
       </c>
       <c r="I13">
-        <v>0.07110134773534026</v>
+        <v>0.05411501461132016</v>
       </c>
       <c r="J13">
-        <v>0.07110134773534026</v>
+        <v>0.05411501461132018</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>8.14026546315054</v>
+        <v>8.915377333333334</v>
       </c>
       <c r="N13">
-        <v>8.14026546315054</v>
+        <v>26.746132</v>
       </c>
       <c r="O13">
-        <v>0.07659406346484918</v>
+        <v>0.04321756914621411</v>
       </c>
       <c r="P13">
-        <v>0.07659406346484918</v>
+        <v>0.04321756914621412</v>
       </c>
       <c r="Q13">
-        <v>2.206514489843189</v>
+        <v>2.784738912613777</v>
       </c>
       <c r="R13">
-        <v>2.206514489843189</v>
+        <v>25.062650213524</v>
       </c>
       <c r="S13">
-        <v>0.005445941140876962</v>
+        <v>0.002338719385813116</v>
       </c>
       <c r="T13">
-        <v>0.005445941140876962</v>
+        <v>0.002338719385813117</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.5539481984821411</v>
+        <v>0.5826116666666666</v>
       </c>
       <c r="H14">
-        <v>0.5539481984821411</v>
+        <v>1.747835</v>
       </c>
       <c r="I14">
-        <v>0.1453044019968767</v>
+        <v>0.1009374206298835</v>
       </c>
       <c r="J14">
-        <v>0.1453044019968767</v>
+        <v>0.1009374206298836</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>51.2286908243197</v>
+        <v>150.1098686666667</v>
       </c>
       <c r="N14">
-        <v>51.2286908243197</v>
+        <v>450.329606</v>
       </c>
       <c r="O14">
-        <v>0.4820252624415567</v>
+        <v>0.7276622610660995</v>
       </c>
       <c r="P14">
-        <v>0.4820252624415567</v>
+        <v>0.7276622610660997</v>
       </c>
       <c r="Q14">
-        <v>28.37804099273049</v>
+        <v>87.45576076700111</v>
       </c>
       <c r="R14">
-        <v>28.37804099273049</v>
+        <v>787.1018469030099</v>
       </c>
       <c r="S14">
-        <v>0.07004039250645797</v>
+        <v>0.07344835172172103</v>
       </c>
       <c r="T14">
-        <v>0.07004039250645797</v>
+        <v>0.07344835172172104</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.5539481984821411</v>
+        <v>0.5826116666666666</v>
       </c>
       <c r="H15">
-        <v>0.5539481984821411</v>
+        <v>1.747835</v>
       </c>
       <c r="I15">
-        <v>0.1453044019968767</v>
+        <v>0.1009374206298835</v>
       </c>
       <c r="J15">
-        <v>0.1453044019968767</v>
+        <v>0.1009374206298836</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>42.3052700170026</v>
+        <v>42.32476666666667</v>
       </c>
       <c r="N15">
-        <v>42.3052700170026</v>
+        <v>126.9743</v>
       </c>
       <c r="O15">
-        <v>0.398062268515475</v>
+        <v>0.2051706239258123</v>
       </c>
       <c r="P15">
-        <v>0.398062268515475</v>
+        <v>0.2051706239258124</v>
       </c>
       <c r="Q15">
-        <v>23.43492811221913</v>
+        <v>24.65890284894444</v>
       </c>
       <c r="R15">
-        <v>23.43492811221913</v>
+        <v>221.9301256405</v>
       </c>
       <c r="S15">
-        <v>0.05784019988416127</v>
+        <v>0.02070939356809537</v>
       </c>
       <c r="T15">
-        <v>0.05784019988416127</v>
+        <v>0.02070939356809538</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.5539481984821411</v>
+        <v>0.5826116666666666</v>
       </c>
       <c r="H16">
-        <v>0.5539481984821411</v>
+        <v>1.747835</v>
       </c>
       <c r="I16">
-        <v>0.1453044019968767</v>
+        <v>0.1009374206298835</v>
       </c>
       <c r="J16">
-        <v>0.1453044019968767</v>
+        <v>0.1009374206298836</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>4.60379440513869</v>
+        <v>4.940565666666667</v>
       </c>
       <c r="N16">
-        <v>4.60379440513869</v>
+        <v>14.821697</v>
       </c>
       <c r="O16">
-        <v>0.04331840557811907</v>
+        <v>0.02394954586187395</v>
       </c>
       <c r="P16">
-        <v>0.04331840557811907</v>
+        <v>0.02394954586187395</v>
       </c>
       <c r="Q16">
-        <v>2.550263616908738</v>
+        <v>2.878431197332778</v>
       </c>
       <c r="R16">
-        <v>2.550263616908738</v>
+        <v>25.905880775995</v>
       </c>
       <c r="S16">
-        <v>0.00629435501798676</v>
+        <v>0.002417405384554657</v>
       </c>
       <c r="T16">
-        <v>0.00629435501798676</v>
+        <v>0.002417405384554658</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.5539481984821411</v>
+        <v>0.5826116666666666</v>
       </c>
       <c r="H17">
-        <v>0.5539481984821411</v>
+        <v>1.747835</v>
       </c>
       <c r="I17">
-        <v>0.1453044019968767</v>
+        <v>0.1009374206298835</v>
       </c>
       <c r="J17">
-        <v>0.1453044019968767</v>
+        <v>0.1009374206298836</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>8.14026546315054</v>
+        <v>8.915377333333334</v>
       </c>
       <c r="N17">
-        <v>8.14026546315054</v>
+        <v>26.746132</v>
       </c>
       <c r="O17">
-        <v>0.07659406346484918</v>
+        <v>0.04321756914621411</v>
       </c>
       <c r="P17">
-        <v>0.07659406346484918</v>
+        <v>0.04321756914621412</v>
       </c>
       <c r="Q17">
-        <v>4.509285388478633</v>
+        <v>5.194202847135555</v>
       </c>
       <c r="R17">
-        <v>4.509285388478633</v>
+        <v>46.74782562421999</v>
       </c>
       <c r="S17">
-        <v>0.01112945458827073</v>
+        <v>0.004362269955512491</v>
       </c>
       <c r="T17">
-        <v>0.01112945458827073</v>
+        <v>0.004362269955512492</v>
       </c>
     </row>
   </sheetData>
